--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_Saint-Marin/Pandémie_de_Covid-19_à_Saint-Marin.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_Saint-Marin/Pandémie_de_Covid-19_à_Saint-Marin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Marin</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Marin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 à Saint-Marin démarre officiellement le 27 février 2020. À la date du 18 septembre 2022, le bilan est de 118 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Marin</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Marin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas de contamination à Saint-Marin est détecté le 27 février 2020. Il s'agit d'un homme de 88 ans, venu d'Italie. Ce dernier, hospitalisé dans un hôpital de Rimini[2], meurt le 1er mars, alors que sept autres cas de Covid-19 sont confirmés par le Groupe de coordination des urgences sanitaires[3].
-Face à l'augmentation du nombre de cas contaminés, le gouvernement décide le 14 mars 2020 une mise en quarantaine nationale jusqu'au 6 avril[4]. Avec 4 956 cas au 10 avril 2021[5], Saint-Marin est le micro-État le plus durement touché par la pandémie.
-Le 26 juin 2020, le pays ne comptait plus de cas actif. En effet, sur les 698 cas confirmés de Covid-19, 656 ont été guéris et 42 en sont décédés[6]. La seconde vague débute au mois de novembre 2020.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de contamination à Saint-Marin est détecté le 27 février 2020. Il s'agit d'un homme de 88 ans, venu d'Italie. Ce dernier, hospitalisé dans un hôpital de Rimini, meurt le 1er mars, alors que sept autres cas de Covid-19 sont confirmés par le Groupe de coordination des urgences sanitaires.
+Face à l'augmentation du nombre de cas contaminés, le gouvernement décide le 14 mars 2020 une mise en quarantaine nationale jusqu'au 6 avril. Avec 4 956 cas au 10 avril 2021, Saint-Marin est le micro-État le plus durement touché par la pandémie.
+Le 26 juin 2020, le pays ne comptait plus de cas actif. En effet, sur les 698 cas confirmés de Covid-19, 656 ont été guéris et 42 en sont décédés. La seconde vague débute au mois de novembre 2020.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Marin</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Marin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
